--- a/fichiers_xls/test_extract_column.xlsx
+++ b/fichiers_xls/test_extract_column.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="22300896" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="22303499" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="22302237" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="22304999" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="22300896" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="22303499" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="22302237" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="22304999" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>

--- a/fichiers_xls/test_extract_column.xlsx
+++ b/fichiers_xls/test_extract_column.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="22300896" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="22303499" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="22302237" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="22304999" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="22300896" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="22303499" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="22302237" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="22304999" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -65,11 +65,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -163,41 +163,41 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="1f497d"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="eeece1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4f81bd"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="c0504d"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="9bbb59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="8064a2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4bacc6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="f79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -205,243 +205,135 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:shade val="51000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
                 <a:shade val="93000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="94000"/>
-                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="20000"/>
-                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="30000"/>
-                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 

--- a/fichiers_xls/test_extract_column.xlsx
+++ b/fichiers_xls/test_extract_column.xlsx
@@ -11,6 +11,7 @@
     <sheet name="22303499" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="22302237" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="22304999" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="gather_2" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -3187,4 +3188,555 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>22304999</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4479</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9003</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4574</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>8814</v>
+      </c>
+      <c r="B3" t="n">
+        <v>11301</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7308</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3862</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4477</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4518</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>11797</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4313</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5067</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2322</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10197</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7838</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6286</v>
+      </c>
+      <c r="B7" t="n">
+        <v>16577</v>
+      </c>
+      <c r="C7" t="n">
+        <v>11263</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>15306</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4209</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10119</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>14358</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5398</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6883</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3921</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3195</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9096</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3737</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11250</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8510</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10865</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10283</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3644</v>
+      </c>
+      <c r="C12" t="n">
+        <v>8195</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3816</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>22260</v>
+      </c>
+      <c r="B13" t="n">
+        <v>23079</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2766</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4145</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13445</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6754</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6292</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>7644</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5829</v>
+      </c>
+      <c r="C15" t="n">
+        <v>39419</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>6710</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4278</v>
+      </c>
+      <c r="C16" t="n">
+        <v>13531</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>11768</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2229</v>
+      </c>
+      <c r="C17" t="n">
+        <v>10292</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1711</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4157</v>
+      </c>
+      <c r="C18" t="n">
+        <v>18927</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2597</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4814</v>
+      </c>
+      <c r="C19" t="n">
+        <v>10683</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1346</v>
+      </c>
+      <c r="B20" t="n">
+        <v>17163</v>
+      </c>
+      <c r="C20" t="n">
+        <v>23540</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>9118</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4063</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1552</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5404</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2172</v>
+      </c>
+      <c r="B22" t="n">
+        <v>7476</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20740</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>6452</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2497</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21109</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1287</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5812</v>
+      </c>
+      <c r="C24" t="n">
+        <v>16533</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1881</v>
+      </c>
+      <c r="B25" t="n">
+        <v>6496</v>
+      </c>
+      <c r="C25" t="n">
+        <v>12421</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2070</v>
+      </c>
+      <c r="B26" t="n">
+        <v>11044</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4383</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>7729</v>
+      </c>
+      <c r="B27" t="n">
+        <v>8330</v>
+      </c>
+      <c r="C27" t="n">
+        <v>16564</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2572</v>
+      </c>
+      <c r="B28" t="n">
+        <v>8561</v>
+      </c>
+      <c r="C28" t="n">
+        <v>8168</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>9326</v>
+      </c>
+      <c r="B29" t="n">
+        <v>6693</v>
+      </c>
+      <c r="C29" t="n">
+        <v>15257</v>
+      </c>
+      <c r="D29" t="n">
+        <v>6204</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>8775</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3078</v>
+      </c>
+      <c r="C30" t="n">
+        <v>15205</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3704</v>
+      </c>
+      <c r="C31" t="n">
+        <v>12914</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1395</v>
+      </c>
+      <c r="B32" t="n">
+        <v>4369</v>
+      </c>
+      <c r="C32" t="n">
+        <v>12461</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>6754</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1861</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="n">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="n">
+        <v>3871</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="n">
+        <v>3843</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="n">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="n">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="n">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="n">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="n">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="n">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="n">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="n">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="n">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="n">
+        <v>6253</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/fichiers_xls/test_extract_column.xlsx
+++ b/fichiers_xls/test_extract_column.xlsx
@@ -11,7 +11,6 @@
     <sheet name="22303499" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="22302237" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="22304999" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="gather_2" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -3188,555 +3187,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>22300896</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>22303499</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>22302237</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>22304999</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4479</v>
-      </c>
-      <c r="B2" t="n">
-        <v>9003</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4574</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2480</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>8814</v>
-      </c>
-      <c r="B3" t="n">
-        <v>11301</v>
-      </c>
-      <c r="C3" t="n">
-        <v>7308</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2447</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3862</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4477</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4518</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>11797</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4313</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5067</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2631</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2322</v>
-      </c>
-      <c r="B6" t="n">
-        <v>10197</v>
-      </c>
-      <c r="C6" t="n">
-        <v>7838</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3278</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6286</v>
-      </c>
-      <c r="B7" t="n">
-        <v>16577</v>
-      </c>
-      <c r="C7" t="n">
-        <v>11263</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2434</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>15306</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4209</v>
-      </c>
-      <c r="C8" t="n">
-        <v>10119</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2366</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>14358</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5398</v>
-      </c>
-      <c r="C9" t="n">
-        <v>6883</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3310</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3921</v>
-      </c>
-      <c r="B10" t="n">
-        <v>3195</v>
-      </c>
-      <c r="C10" t="n">
-        <v>9096</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3737</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>11250</v>
-      </c>
-      <c r="B11" t="n">
-        <v>8510</v>
-      </c>
-      <c r="C11" t="n">
-        <v>10865</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3467</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>10283</v>
-      </c>
-      <c r="B12" t="n">
-        <v>3644</v>
-      </c>
-      <c r="C12" t="n">
-        <v>8195</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3816</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>22260</v>
-      </c>
-      <c r="B13" t="n">
-        <v>23079</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2766</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3188</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4145</v>
-      </c>
-      <c r="B14" t="n">
-        <v>13445</v>
-      </c>
-      <c r="C14" t="n">
-        <v>6754</v>
-      </c>
-      <c r="D14" t="n">
-        <v>6292</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>7644</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5829</v>
-      </c>
-      <c r="C15" t="n">
-        <v>39419</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>6710</v>
-      </c>
-      <c r="B16" t="n">
-        <v>4278</v>
-      </c>
-      <c r="C16" t="n">
-        <v>13531</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2368</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>11768</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2229</v>
-      </c>
-      <c r="C17" t="n">
-        <v>10292</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2212</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>1711</v>
-      </c>
-      <c r="B18" t="n">
-        <v>4157</v>
-      </c>
-      <c r="C18" t="n">
-        <v>18927</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>2597</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4814</v>
-      </c>
-      <c r="C19" t="n">
-        <v>10683</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1953</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1346</v>
-      </c>
-      <c r="B20" t="n">
-        <v>17163</v>
-      </c>
-      <c r="C20" t="n">
-        <v>23540</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>9118</v>
-      </c>
-      <c r="B21" t="n">
-        <v>4063</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1552</v>
-      </c>
-      <c r="D21" t="n">
-        <v>5404</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2172</v>
-      </c>
-      <c r="B22" t="n">
-        <v>7476</v>
-      </c>
-      <c r="C22" t="n">
-        <v>20740</v>
-      </c>
-      <c r="D22" t="n">
-        <v>4359</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>6452</v>
-      </c>
-      <c r="B23" t="n">
-        <v>2497</v>
-      </c>
-      <c r="C23" t="n">
-        <v>21109</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>1287</v>
-      </c>
-      <c r="B24" t="n">
-        <v>5812</v>
-      </c>
-      <c r="C24" t="n">
-        <v>16533</v>
-      </c>
-      <c r="D24" t="n">
-        <v>2729</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>1881</v>
-      </c>
-      <c r="B25" t="n">
-        <v>6496</v>
-      </c>
-      <c r="C25" t="n">
-        <v>12421</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1928</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>2070</v>
-      </c>
-      <c r="B26" t="n">
-        <v>11044</v>
-      </c>
-      <c r="C26" t="n">
-        <v>4383</v>
-      </c>
-      <c r="D26" t="n">
-        <v>2817</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>7729</v>
-      </c>
-      <c r="B27" t="n">
-        <v>8330</v>
-      </c>
-      <c r="C27" t="n">
-        <v>16564</v>
-      </c>
-      <c r="D27" t="n">
-        <v>2308</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>2572</v>
-      </c>
-      <c r="B28" t="n">
-        <v>8561</v>
-      </c>
-      <c r="C28" t="n">
-        <v>8168</v>
-      </c>
-      <c r="D28" t="n">
-        <v>2359</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>9326</v>
-      </c>
-      <c r="B29" t="n">
-        <v>6693</v>
-      </c>
-      <c r="C29" t="n">
-        <v>15257</v>
-      </c>
-      <c r="D29" t="n">
-        <v>6204</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>8775</v>
-      </c>
-      <c r="B30" t="n">
-        <v>3078</v>
-      </c>
-      <c r="C30" t="n">
-        <v>15205</v>
-      </c>
-      <c r="D30" t="n">
-        <v>2760</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B31" t="n">
-        <v>3704</v>
-      </c>
-      <c r="C31" t="n">
-        <v>12914</v>
-      </c>
-      <c r="D31" t="n">
-        <v>3750</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>1395</v>
-      </c>
-      <c r="B32" t="n">
-        <v>4369</v>
-      </c>
-      <c r="C32" t="n">
-        <v>12461</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>6754</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1861</v>
-      </c>
-      <c r="D33" t="n">
-        <v>3303</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="C34" t="n">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="C35" t="n">
-        <v>3871</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="C36" t="n">
-        <v>3843</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="C37" t="n">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="C38" t="n">
-        <v>2427</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="C39" t="n">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="C40" t="n">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="C41" t="n">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="C42" t="n">
-        <v>1806</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="C43" t="n">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="C44" t="n">
-        <v>2731</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="C45" t="n">
-        <v>3166</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="C46" t="n">
-        <v>6253</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/fichiers_xls/test_extract_column.xlsx
+++ b/fichiers_xls/test_extract_column.xlsx
@@ -2542,7 +2542,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
